--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.781116240626943</v>
+        <v>0.8154008458012483</v>
       </c>
       <c r="D2">
-        <v>0.4492575938591654</v>
+        <v>0.5347106467231812</v>
       </c>
       <c r="E2">
-        <v>0.8198194079006</v>
+        <v>0.8184909588799254</v>
       </c>
       <c r="F2">
-        <v>0.7679899390502865</v>
+        <v>0.7321273681438538</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.781116240626943</v>
+        <v>0.8154008458012483</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.2852779938472985</v>
+        <v>0.4560039731195333</v>
       </c>
       <c r="E3">
-        <v>0.5572687131044147</v>
+        <v>0.5293652828311641</v>
       </c>
       <c r="F3">
-        <v>0.5040988825165167</v>
+        <v>0.5757957273994081</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4492575938591654</v>
+        <v>0.5347106467231812</v>
       </c>
       <c r="C4">
-        <v>0.2852779938472985</v>
+        <v>0.4560039731195333</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5612694982018058</v>
+        <v>0.6450878918800242</v>
       </c>
       <c r="F4">
-        <v>0.5708442942013401</v>
+        <v>0.5975588300474062</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8198194079006</v>
+        <v>0.8184909588799254</v>
       </c>
       <c r="C5">
-        <v>0.5572687131044147</v>
+        <v>0.5293652828311641</v>
       </c>
       <c r="D5">
-        <v>0.5612694982018058</v>
+        <v>0.6450878918800242</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.8866912665227293</v>
+        <v>0.9115069976567494</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7679899390502865</v>
+        <v>0.7321273681438538</v>
       </c>
       <c r="C6">
-        <v>0.5040988825165167</v>
+        <v>0.5757957273994081</v>
       </c>
       <c r="D6">
-        <v>0.5708442942013401</v>
+        <v>0.5975588300474062</v>
       </c>
       <c r="E6">
-        <v>0.8866912665227293</v>
+        <v>0.9115069976567494</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.2780209505031251</v>
+        <v>-0.2379056700193651</v>
       </c>
       <c r="D2">
-        <v>0.7572747944844717</v>
+        <v>0.6365141036749664</v>
       </c>
       <c r="E2">
-        <v>0.227902346658644</v>
+        <v>0.2338440244291884</v>
       </c>
       <c r="F2">
-        <v>0.2951725867103131</v>
+        <v>0.3492113672464949</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2780209505031251</v>
+        <v>0.2379056700193651</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.069733587408659</v>
+        <v>0.7666840612921585</v>
       </c>
       <c r="E3">
-        <v>0.5873152829602114</v>
+        <v>0.6449850667625696</v>
       </c>
       <c r="F3">
-        <v>0.6685589973772241</v>
+        <v>0.5729047729763265</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.7572747944844717</v>
+        <v>-0.6365141036749664</v>
       </c>
       <c r="C4">
-        <v>-1.069733587408659</v>
+        <v>-0.7666840612921585</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.5813626933129735</v>
+        <v>-0.470724001009268</v>
       </c>
       <c r="F4">
-        <v>-0.5671995944619564</v>
+        <v>-0.5401842302751506</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.227902346658644</v>
+        <v>-0.2338440244291884</v>
       </c>
       <c r="C5">
-        <v>-0.5873152829602114</v>
+        <v>-0.6449850667625696</v>
       </c>
       <c r="D5">
-        <v>0.5813626933129735</v>
+        <v>0.470724001009268</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1425680675081896</v>
+        <v>0.1131643266339309</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.2951725867103131</v>
+        <v>-0.3492113672464949</v>
       </c>
       <c r="C6">
-        <v>-0.6685589973772241</v>
+        <v>-0.5729047729763265</v>
       </c>
       <c r="D6">
-        <v>0.5671995944619564</v>
+        <v>0.5401842302751506</v>
       </c>
       <c r="E6">
-        <v>-0.1425680675081896</v>
+        <v>-0.1131643266339309</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8154008458012483</v>
+        <v>0.06610764425310278</v>
       </c>
       <c r="D2">
-        <v>0.5347106467231812</v>
+        <v>0.5646290690780407</v>
       </c>
       <c r="E2">
-        <v>0.8184909588799254</v>
+        <v>0.9372251822700217</v>
       </c>
       <c r="F2">
-        <v>0.7321273681438538</v>
+        <v>0.2030852361582132</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8154008458012483</v>
+        <v>0.06610764425310278</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4560039731195333</v>
+        <v>0.3319555787791584</v>
       </c>
       <c r="E3">
-        <v>0.5293652828311641</v>
+        <v>0.1320453434973714</v>
       </c>
       <c r="F3">
-        <v>0.5757957273994081</v>
+        <v>0.9361133260449077</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5347106467231812</v>
+        <v>0.5646290690780407</v>
       </c>
       <c r="C4">
-        <v>0.4560039731195333</v>
+        <v>0.3319555787791584</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.6450878918800242</v>
+        <v>0.4302651170856504</v>
       </c>
       <c r="F4">
-        <v>0.5975588300474062</v>
+        <v>0.138108933080914</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8184909588799254</v>
+        <v>0.9372251822700217</v>
       </c>
       <c r="C5">
-        <v>0.5293652828311641</v>
+        <v>0.1320453434973714</v>
       </c>
       <c r="D5">
-        <v>0.6450878918800242</v>
+        <v>0.4302651170856504</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.9115069976567494</v>
+        <v>0.08438016034529561</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7321273681438538</v>
+        <v>0.2030852361582132</v>
       </c>
       <c r="C6">
-        <v>0.5757957273994081</v>
+        <v>0.9361133260449077</v>
       </c>
       <c r="D6">
-        <v>0.5975588300474062</v>
+        <v>0.138108933080914</v>
       </c>
       <c r="E6">
-        <v>0.9115069976567494</v>
+        <v>0.08438016034529561</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.2379056700193651</v>
+        <v>1.933783656389368</v>
       </c>
       <c r="D2">
-        <v>0.6365141036749664</v>
+        <v>0.584804837474611</v>
       </c>
       <c r="E2">
-        <v>0.2338440244291884</v>
+        <v>-0.07966340251504776</v>
       </c>
       <c r="F2">
-        <v>0.3492113672464949</v>
+        <v>1.311881733975754</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2379056700193651</v>
+        <v>-1.933783656389368</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7666840612921585</v>
+        <v>-0.9920587388922831</v>
       </c>
       <c r="E3">
-        <v>0.6449850667625696</v>
+        <v>-1.56418662133658</v>
       </c>
       <c r="F3">
-        <v>0.5729047729763265</v>
+        <v>0.08107759414748608</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.6365141036749664</v>
+        <v>-0.584804837474611</v>
       </c>
       <c r="C4">
-        <v>-0.7666840612921585</v>
+        <v>0.9920587388922831</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.470724001009268</v>
+        <v>-0.8035303069451786</v>
       </c>
       <c r="F4">
-        <v>-0.5401842302751506</v>
+        <v>1.538818134062586</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.2338440244291884</v>
+        <v>0.07966340251504776</v>
       </c>
       <c r="C5">
-        <v>-0.6449850667625696</v>
+        <v>1.56418662133658</v>
       </c>
       <c r="D5">
-        <v>0.470724001009268</v>
+        <v>0.8035303069451786</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1131643266339309</v>
+        <v>1.807492951761787</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.3492113672464949</v>
+        <v>-1.311881733975754</v>
       </c>
       <c r="C6">
-        <v>-0.5729047729763265</v>
+        <v>-0.08107759414748608</v>
       </c>
       <c r="D6">
-        <v>0.5401842302751506</v>
+        <v>-1.538818134062586</v>
       </c>
       <c r="E6">
-        <v>-0.1131643266339309</v>
+        <v>-1.807492951761787</v>
       </c>
       <c r="F6">
         <v>0</v>
